--- a/groupUpdateTemplate-a2.xlsx
+++ b/groupUpdateTemplate-a2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/xiaodong_li_rmit_edu_au/Documents/cosc1076apt/assignment2-s1-2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarv/Documents/coding/APT/APT-A2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{5E736ED9-EAFA-F244-967A-1727A477AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA220D74-38D6-4CBA-8D56-76B56C65AEA6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AAC14E-A409-2147-ABF3-CB5BF9E6E12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,17 @@
   <commentList>
     <comment ref="D22" authorId="0" shapeId="0" xr:uid="{011182AE-9E46-4BDF-AE55-DF745D9F1635}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Note these are just some random thought on "setting goals". Feel free to set whatever goals your group thinks appropriate here...</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -193,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -212,12 +219,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -537,70 +538,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1882,24 +1883,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
     <col min="7" max="10" width="41.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1913,7 +1914,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1928,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1939,7 +1940,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1954,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1973,7 +1974,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +1992,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -2027,7 +2028,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2041,7 +2042,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="6"/>
@@ -2067,7 +2068,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
@@ -2098,7 +2099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -2114,7 +2115,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="18"/>
@@ -2130,7 +2131,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="18"/>
@@ -2146,7 +2147,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
@@ -2158,7 +2159,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
@@ -2169,7 +2170,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="25"/>
@@ -2181,14 +2182,14 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="28"/>
@@ -2197,7 +2198,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="30"/>
@@ -2209,7 +2210,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
@@ -2221,7 +2222,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
@@ -2252,7 +2253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7"/>
       <c r="C23" s="35"/>
@@ -2268,7 +2269,7 @@
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7"/>
       <c r="C24" s="12"/>
@@ -2284,7 +2285,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7"/>
       <c r="C25" s="18"/>
@@ -2300,7 +2301,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7"/>
       <c r="C26" s="18"/>
@@ -2313,7 +2314,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7"/>
       <c r="C27" s="18"/>
@@ -2327,7 +2328,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:10" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="30.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18"/>
@@ -2341,7 +2342,7 @@
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7"/>
       <c r="C29" s="18"/>
@@ -2355,7 +2356,7 @@
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7"/>
       <c r="C30" s="25"/>
@@ -2369,14 +2370,14 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="28"/>
@@ -2385,7 +2386,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="30"/>
@@ -2397,7 +2398,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
@@ -2409,7 +2410,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
@@ -2437,7 +2438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
       <c r="C35" s="12"/>
@@ -2453,7 +2454,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
       <c r="C36" s="18"/>
@@ -2469,7 +2470,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
       <c r="C37" s="18"/>
@@ -2485,7 +2486,7 @@
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="1:10" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
       <c r="C38" s="18"/>
@@ -2499,7 +2500,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
       <c r="C39" s="18"/>
@@ -2513,7 +2514,7 @@
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
       <c r="C40" s="25"/>
@@ -2525,7 +2526,7 @@
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8" t="s">
@@ -2541,7 +2542,7 @@
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="30"/>
@@ -2553,7 +2554,7 @@
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
     </row>
-    <row r="43" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="6"/>
@@ -2565,7 +2566,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8" t="s">
@@ -2593,7 +2594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="7"/>
       <c r="C45" s="12"/>
@@ -2609,7 +2610,7 @@
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18"/>
@@ -2625,7 +2626,7 @@
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="7"/>
       <c r="C47" s="18"/>
@@ -2639,7 +2640,7 @@
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="7"/>
       <c r="C48" s="18"/>
@@ -2653,7 +2654,7 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7"/>
       <c r="C49" s="18"/>
@@ -2667,7 +2668,7 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="7"/>
       <c r="C50" s="25"/>
@@ -2679,7 +2680,7 @@
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
@@ -2695,7 +2696,7 @@
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="30"/>
@@ -2707,7 +2708,7 @@
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:10" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
@@ -2773,7 +2774,7 @@
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 D31 D41 D51" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Ahead,On-track,Behind,Way Behind"</formula1>
     </dataValidation>
